--- a/data/Vipin.xlsx
+++ b/data/Vipin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -24,16 +24,25 @@
     <t>passprd</t>
   </si>
   <si>
-    <t>yva</t>
-  </si>
-  <si>
     <t>sadf</t>
   </si>
   <si>
     <t>vipin</t>
   </si>
   <si>
-    <t>weuryue</t>
+    <t>yuva</t>
+  </si>
+  <si>
+    <t>passs</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -365,36 +374,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -418,7 +436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
